--- a/file_checks/wrong_genes_example.xlsx
+++ b/file_checks/wrong_genes_example.xlsx
@@ -1343,502 +1343,502 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.240697564110439</v>
+        <v>0.131647260097757</v>
       </c>
       <c r="B2" t="n">
-        <v>0.145851997149138</v>
+        <v>1.22876182724604</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.334365027296855</v>
+        <v>2.03905597553567</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0306571664474313</v>
+        <v>1.02477897672327</v>
       </c>
       <c r="E2" t="n">
-        <v>2.02418415837213</v>
+        <v>-2.31540347742485</v>
       </c>
       <c r="F2" t="n">
-        <v>0.011576197842514</v>
+        <v>0.554012529282541</v>
       </c>
       <c r="G2" t="n">
-        <v>2.38552823466624</v>
+        <v>0.62250075841975</v>
       </c>
       <c r="H2" t="n">
-        <v>-1.39377732474121</v>
+        <v>2.18491537979366</v>
       </c>
       <c r="I2" t="n">
-        <v>-1.1386649629075</v>
+        <v>0.715971464797884</v>
       </c>
       <c r="J2" t="n">
-        <v>-2.30319255219657</v>
+        <v>-0.843697060719733</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.892191156852338</v>
+        <v>0.237708055048999</v>
       </c>
       <c r="L2" t="n">
-        <v>1.29911242526863</v>
+        <v>-1.40732780604717</v>
       </c>
       <c r="M2" t="n">
-        <v>2.39660838242845</v>
+        <v>0.78236672461671</v>
       </c>
       <c r="N2" t="n">
-        <v>0.379591470815206</v>
+        <v>0.592326225579006</v>
       </c>
       <c r="O2" t="n">
-        <v>-1.93940296680796</v>
+        <v>-1.72119686598063</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.0425097582479897</v>
+        <v>-0.142884939896371</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.0413380913070607</v>
+        <v>-1.18868085340702</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.487972712791692</v>
+        <v>-0.681689291525435</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.879550795473169</v>
+        <v>0.838785386685861</v>
       </c>
       <c r="T2" t="n">
-        <v>-1.12130466726642</v>
+        <v>-1.43326531129881</v>
       </c>
       <c r="U2" t="n">
-        <v>0.673936959557957</v>
+        <v>0.374087206530973</v>
       </c>
       <c r="V2" t="n">
-        <v>0.730671945521349</v>
+        <v>0.200600842927648</v>
       </c>
       <c r="W2" t="n">
-        <v>0.0422479253677859</v>
+        <v>-1.30260720190209</v>
       </c>
       <c r="X2" t="n">
-        <v>-0.27100789586972</v>
+        <v>-0.336648165120748</v>
       </c>
       <c r="Y2" t="n">
-        <v>-0.98998043266869</v>
+        <v>-0.723321410920081</v>
       </c>
       <c r="Z2" t="n">
-        <v>-0.509593693016651</v>
+        <v>-0.719923991843258</v>
       </c>
       <c r="AA2" t="n">
-        <v>-1.18500305194566</v>
+        <v>-1.03010074105249</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.510094348185594</v>
+        <v>0.753656425815895</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.865702798714095</v>
+        <v>-0.925523892302386</v>
       </c>
       <c r="AD2" t="n">
-        <v>-1.15839458052358</v>
+        <v>0.795468890807449</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0.498717191992147</v>
+        <v>1.01497848586557</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.157226667101357</v>
+        <v>-0.917211015607421</v>
       </c>
       <c r="AG2" t="n">
-        <v>1.10777633856494</v>
+        <v>0.662208023166197</v>
       </c>
       <c r="AH2" t="n">
-        <v>-1.03158342282706</v>
+        <v>-1.03927812345171</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.0653579617576155</v>
+        <v>1.15669897491489</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.302549020278167</v>
+        <v>1.1278235287767</v>
       </c>
       <c r="AK2" t="n">
-        <v>-1.08831546113914</v>
+        <v>-0.847157736862118</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.587526761681884</v>
+        <v>-0.918741627122438</v>
       </c>
       <c r="AM2" t="n">
-        <v>-1.17526015925287</v>
+        <v>0.204828560449665</v>
       </c>
       <c r="AN2" t="n">
-        <v>-0.286186818333377</v>
+        <v>-1.09974193597704</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.00306700143252209</v>
+        <v>-0.707762162039327</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.917467846085301</v>
+        <v>-1.01876096518389</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-0.653850399291684</v>
+        <v>0.243993714489147</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.311942900035861</v>
+        <v>-0.244286134683164</v>
       </c>
       <c r="AS2" t="n">
-        <v>-0.714114858675169</v>
+        <v>0.363259475802362</v>
       </c>
       <c r="AT2" t="n">
-        <v>-0.0102036876847989</v>
+        <v>0.807482178371907</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.868668250539078</v>
+        <v>-1.15845556465231</v>
       </c>
       <c r="AV2" t="n">
-        <v>1.81049960342321</v>
+        <v>-0.31616007213577</v>
       </c>
       <c r="AW2" t="n">
-        <v>-0.266502589580822</v>
+        <v>1.58133504838656</v>
       </c>
       <c r="AX2" t="n">
-        <v>-0.570425876838672</v>
+        <v>0.649237476628184</v>
       </c>
       <c r="AY2" t="n">
-        <v>-0.726540877660288</v>
+        <v>0.261365672809192</v>
       </c>
       <c r="AZ2" t="n">
-        <v>1.90547029386631</v>
+        <v>-0.781751257986457</v>
       </c>
       <c r="BA2" t="n">
-        <v>2.04652592061958</v>
+        <v>-0.769315238973181</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.723675182034642</v>
+        <v>0.2433829383896</v>
       </c>
       <c r="BC2" t="n">
-        <v>1.24070481558014</v>
+        <v>-0.136657719505847</v>
       </c>
       <c r="BD2" t="n">
-        <v>-0.727966183500563</v>
+        <v>2.35523611831361</v>
       </c>
       <c r="BE2" t="n">
-        <v>-0.701308489470538</v>
+        <v>0.0171841972969043</v>
       </c>
       <c r="BF2" t="n">
-        <v>0.00599235771943895</v>
+        <v>0.482907428914067</v>
       </c>
       <c r="BG2" t="n">
-        <v>0.640139957909258</v>
+        <v>0.0565981738350629</v>
       </c>
       <c r="BH2" t="n">
-        <v>0.406687182449483</v>
+        <v>-1.02579687153577</v>
       </c>
       <c r="BI2" t="n">
-        <v>-0.289204732596795</v>
+        <v>1.72563873870436</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.156444010598438</v>
+        <v>-0.958143361324604</v>
       </c>
       <c r="BK2" t="n">
-        <v>-0.545533270844077</v>
+        <v>1.19765255332378</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.872433696526498</v>
+        <v>0.95631747336961</v>
       </c>
       <c r="BM2" t="n">
-        <v>-1.25623478664208</v>
+        <v>-0.766677750369209</v>
       </c>
       <c r="BN2" t="n">
-        <v>-0.0903060284250255</v>
+        <v>0.612762924537608</v>
       </c>
       <c r="BO2" t="n">
-        <v>-0.749699094474531</v>
+        <v>-1.23783114744503</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.274153988323531</v>
+        <v>-1.65906228021825</v>
       </c>
       <c r="BQ2" t="n">
-        <v>-0.688459249832437</v>
+        <v>2.02518271736788</v>
       </c>
       <c r="BR2" t="n">
-        <v>0.00453854012810176</v>
+        <v>1.36230559375665</v>
       </c>
       <c r="BS2" t="n">
-        <v>1.74679998786155</v>
+        <v>1.51301850733233</v>
       </c>
       <c r="BT2" t="n">
-        <v>-0.426770618690833</v>
+        <v>-0.132581441122166</v>
       </c>
       <c r="BU2" t="n">
-        <v>-0.479892470129393</v>
+        <v>2.64476457593853</v>
       </c>
       <c r="BV2" t="n">
-        <v>0.9637775697911</v>
+        <v>0.576429447434198</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.266232007803749</v>
+        <v>-0.274168845475173</v>
       </c>
       <c r="BX2" t="n">
-        <v>0.207995767281472</v>
+        <v>0.156456099001908</v>
       </c>
       <c r="BY2" t="n">
-        <v>-1.49638001457372</v>
+        <v>0.568570585790681</v>
       </c>
       <c r="BZ2" t="n">
-        <v>-1.5514389198217</v>
+        <v>-0.390310044100348</v>
       </c>
       <c r="CA2" t="n">
-        <v>-0.771616685573238</v>
+        <v>0.263221161158645</v>
       </c>
       <c r="CB2" t="n">
-        <v>0.49256827314325</v>
+        <v>-0.113244705497202</v>
       </c>
       <c r="CC2" t="n">
-        <v>-1.07834181817651</v>
+        <v>1.82488678451881</v>
       </c>
       <c r="CD2" t="n">
-        <v>0.239536432834749</v>
+        <v>0.673779661416283</v>
       </c>
       <c r="CE2" t="n">
-        <v>-2.20367079116795</v>
+        <v>0.0323181367550065</v>
       </c>
       <c r="CF2" t="n">
-        <v>-1.47218115929283</v>
+        <v>-0.660488889988186</v>
       </c>
       <c r="CG2" t="n">
-        <v>1.8238818885707</v>
+        <v>-1.04539841169345</v>
       </c>
       <c r="CH2" t="n">
-        <v>-0.953515501156795</v>
+        <v>-0.283127392296989</v>
       </c>
       <c r="CI2" t="n">
-        <v>0.647610331532047</v>
+        <v>-1.56989457832515</v>
       </c>
       <c r="CJ2" t="n">
-        <v>-0.410452082415655</v>
+        <v>-0.471630213953584</v>
       </c>
       <c r="CK2" t="n">
-        <v>-1.63441428308593</v>
+        <v>-0.0827196527564387</v>
       </c>
       <c r="CL2" t="n">
-        <v>-0.896106893239861</v>
+        <v>-1.1590045860386</v>
       </c>
       <c r="CM2" t="n">
-        <v>1.47438829160806</v>
+        <v>1.13056757239299</v>
       </c>
       <c r="CN2" t="n">
-        <v>0.0946887955280522</v>
+        <v>-0.105132041951819</v>
       </c>
       <c r="CO2" t="n">
-        <v>-0.553090382601809</v>
+        <v>0.741126794840414</v>
       </c>
       <c r="CP2" t="n">
-        <v>-1.04280525662243</v>
+        <v>-0.867302864889958</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.991479301569842</v>
+        <v>1.16546265766488</v>
       </c>
       <c r="CR2" t="n">
-        <v>2.12661017549887</v>
+        <v>-0.182755078593568</v>
       </c>
       <c r="CS2" t="n">
-        <v>-1.38452698035228</v>
+        <v>-0.694814097099549</v>
       </c>
       <c r="CT2" t="n">
-        <v>-1.48833274281116</v>
+        <v>0.36899444346093</v>
       </c>
       <c r="CU2" t="n">
-        <v>1.35784192092937</v>
+        <v>1.10062733771799</v>
       </c>
       <c r="CV2" t="n">
-        <v>-0.223806145554856</v>
+        <v>-0.748034737015694</v>
       </c>
       <c r="CW2" t="n">
-        <v>-1.3444361544171</v>
+        <v>-1.07760846355164</v>
       </c>
       <c r="CX2" t="n">
-        <v>0.186259788934009</v>
+        <v>-0.563132925622734</v>
       </c>
       <c r="CY2" t="n">
-        <v>1.07675583276544</v>
+        <v>-1.7650905887155</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.853391686504211</v>
+        <v>0.367030531719919</v>
       </c>
       <c r="DA2" t="n">
-        <v>-0.542131451185244</v>
+        <v>0.495451172617874</v>
       </c>
       <c r="DB2" t="n">
-        <v>-2.17873361651017</v>
+        <v>-1.4829222152822</v>
       </c>
       <c r="DC2" t="n">
-        <v>-1.49444588523077</v>
+        <v>0.731518218970678</v>
       </c>
       <c r="DD2" t="n">
-        <v>0.405916677800942</v>
+        <v>-0.0183647507943979</v>
       </c>
       <c r="DE2" t="n">
-        <v>-1.82968815160845</v>
+        <v>1.11663116575228</v>
       </c>
       <c r="DF2" t="n">
-        <v>-0.605351733007968</v>
+        <v>0.278700934848548</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.0854183955935301</v>
+        <v>0.612576815883973</v>
       </c>
       <c r="DH2" t="n">
-        <v>-1.15502102635157</v>
+        <v>-0.24757768253406</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.178501139785568</v>
+        <v>-1.05984425726912</v>
       </c>
       <c r="DJ2" t="n">
-        <v>0.955507528515278</v>
+        <v>-0.700296100539043</v>
       </c>
       <c r="DK2" t="n">
-        <v>-0.445468181866066</v>
+        <v>-0.279898108926726</v>
       </c>
       <c r="DL2" t="n">
-        <v>0.947178533418228</v>
+        <v>-1.4298377878469</v>
       </c>
       <c r="DM2" t="n">
-        <v>-0.636670079324139</v>
+        <v>-0.94177653995231</v>
       </c>
       <c r="DN2" t="n">
-        <v>-0.503620292783437</v>
+        <v>1.21014748820092</v>
       </c>
       <c r="DO2" t="n">
-        <v>1.49842865105207</v>
+        <v>0.472617681438579</v>
       </c>
       <c r="DP2" t="n">
-        <v>-1.88491329669431</v>
+        <v>-0.61018133663396</v>
       </c>
       <c r="DQ2" t="n">
-        <v>-0.560168993318785</v>
+        <v>0.544287508722371</v>
       </c>
       <c r="DR2" t="n">
-        <v>1.68927707765197</v>
+        <v>-0.856983758655151</v>
       </c>
       <c r="DS2" t="n">
-        <v>0.335032455129026</v>
+        <v>0.493744922061672</v>
       </c>
       <c r="DT2" t="n">
-        <v>1.98708854160399</v>
+        <v>0.343955242805085</v>
       </c>
       <c r="DU2" t="n">
-        <v>1.42431178360456</v>
+        <v>-1.3888684676026</v>
       </c>
       <c r="DV2" t="n">
-        <v>-0.157737633141043</v>
+        <v>-0.610175068528104</v>
       </c>
       <c r="DW2" t="n">
-        <v>0.831213655421147</v>
+        <v>-0.417948930547938</v>
       </c>
       <c r="DX2" t="n">
-        <v>0.658443660355354</v>
+        <v>-0.432823107657163</v>
       </c>
       <c r="DY2" t="n">
-        <v>0.229619762879019</v>
+        <v>-1.65414905057236</v>
       </c>
       <c r="DZ2" t="n">
-        <v>0.310513392842795</v>
+        <v>-0.589644187213448</v>
       </c>
       <c r="EA2" t="n">
-        <v>0.883906623459157</v>
+        <v>-0.40707231612222</v>
       </c>
       <c r="EB2" t="n">
-        <v>-0.760823949915356</v>
+        <v>1.55159793559503</v>
       </c>
       <c r="EC2" t="n">
-        <v>-0.288536087738697</v>
+        <v>1.9071993862343</v>
       </c>
       <c r="ED2" t="n">
-        <v>-0.156924968120157</v>
+        <v>0.334268120572412</v>
       </c>
       <c r="EE2" t="n">
-        <v>0.278257914146446</v>
+        <v>0.335630286838751</v>
       </c>
       <c r="EF2" t="n">
-        <v>-1.58819658191296</v>
+        <v>0.0980306780348122</v>
       </c>
       <c r="EG2" t="n">
-        <v>0.190941475549922</v>
+        <v>0.224307158109159</v>
       </c>
       <c r="EH2" t="n">
-        <v>-0.0809381064434802</v>
+        <v>0.0339933330862667</v>
       </c>
       <c r="EI2" t="n">
-        <v>-0.700395940740833</v>
+        <v>1.00373302182977</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.810076235273537</v>
+        <v>-2.13807050351106</v>
       </c>
       <c r="EK2" t="n">
-        <v>0.637947103132933</v>
+        <v>-0.735690166244166</v>
       </c>
       <c r="EL2" t="n">
-        <v>-0.775985105524146</v>
+        <v>1.25872929910963</v>
       </c>
       <c r="EM2" t="n">
-        <v>0.0805183653254897</v>
+        <v>-0.110847404777312</v>
       </c>
       <c r="EN2" t="n">
-        <v>-0.0674456284023777</v>
+        <v>0.0893830589035859</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.606355797619764</v>
+        <v>0.305399936242983</v>
       </c>
       <c r="EP2" t="n">
-        <v>-0.327611673110901</v>
+        <v>-1.88298469413058</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.209467414239654</v>
+        <v>0.0530766168710741</v>
       </c>
       <c r="ER2" t="n">
-        <v>0.858565775346361</v>
+        <v>-0.705249641452299</v>
       </c>
       <c r="ES2" t="n">
-        <v>-0.281064966041362</v>
+        <v>-0.808958232738156</v>
       </c>
       <c r="ET2" t="n">
-        <v>-0.71031189571028</v>
+        <v>1.83949201770102</v>
       </c>
       <c r="EU2" t="n">
-        <v>1.36569970220779</v>
+        <v>-0.0292634222479313</v>
       </c>
       <c r="EV2" t="n">
-        <v>-0.885322519141842</v>
+        <v>0.564292271288141</v>
       </c>
       <c r="EW2" t="n">
-        <v>0.704581589030936</v>
+        <v>-0.731817666891578</v>
       </c>
       <c r="EX2" t="n">
-        <v>0.446016252896692</v>
+        <v>1.7348917549038</v>
       </c>
       <c r="EY2" t="n">
-        <v>0.843078307935269</v>
+        <v>-0.683107659398172</v>
       </c>
       <c r="EZ2" t="n">
-        <v>0.0950175754960073</v>
+        <v>-0.274104024273053</v>
       </c>
       <c r="FA2" t="n">
-        <v>0.84626189093702</v>
+        <v>-1.4239540071904</v>
       </c>
       <c r="FB2" t="n">
-        <v>0.51864514560663</v>
+        <v>-0.780262690738126</v>
       </c>
       <c r="FC2" t="n">
-        <v>-0.948879488922854</v>
+        <v>0.32835918127525</v>
       </c>
       <c r="FD2" t="n">
-        <v>1.07946402591529</v>
+        <v>-0.65298291594687</v>
       </c>
       <c r="FE2" t="n">
-        <v>-1.14374538594274</v>
+        <v>-0.213886325865419</v>
       </c>
       <c r="FF2" t="n">
-        <v>0.512921864087476</v>
+        <v>0.235175005986917</v>
       </c>
       <c r="FG2" t="n">
-        <v>-0.0902045465178973</v>
+        <v>-0.371814641135055</v>
       </c>
       <c r="FH2" t="n">
-        <v>0.676817050609851</v>
+        <v>0.890977527966387</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.229847424704312</v>
+        <v>-0.434555773301234</v>
       </c>
       <c r="FJ2" t="n">
-        <v>1.04510313235255</v>
+        <v>0.756064113163402</v>
       </c>
     </row>
   </sheetData>

--- a/file_checks/wrong_genes_example.xlsx
+++ b/file_checks/wrong_genes_example.xlsx
@@ -1343,502 +1343,502 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.131647260097757</v>
+        <v>0.608227955759072</v>
       </c>
       <c r="B2" t="n">
-        <v>1.22876182724604</v>
+        <v>0.91866902402775</v>
       </c>
       <c r="C2" t="n">
-        <v>2.03905597553567</v>
+        <v>-0.478860993680132</v>
       </c>
       <c r="D2" t="n">
-        <v>1.02477897672327</v>
+        <v>1.18077940581283</v>
       </c>
       <c r="E2" t="n">
-        <v>-2.31540347742485</v>
+        <v>0.0710195461515765</v>
       </c>
       <c r="F2" t="n">
-        <v>0.554012529282541</v>
+        <v>-1.0231667046275</v>
       </c>
       <c r="G2" t="n">
-        <v>0.62250075841975</v>
+        <v>1.01079891826555</v>
       </c>
       <c r="H2" t="n">
-        <v>2.18491537979366</v>
+        <v>-0.251630764627514</v>
       </c>
       <c r="I2" t="n">
-        <v>0.715971464797884</v>
+        <v>0.990448953687442</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.843697060719733</v>
+        <v>-1.27278985672532</v>
       </c>
       <c r="K2" t="n">
-        <v>0.237708055048999</v>
+        <v>1.52315661459891</v>
       </c>
       <c r="L2" t="n">
-        <v>-1.40732780604717</v>
+        <v>-1.48575905948909</v>
       </c>
       <c r="M2" t="n">
-        <v>0.78236672461671</v>
+        <v>-0.894627390020858</v>
       </c>
       <c r="N2" t="n">
-        <v>0.592326225579006</v>
+        <v>-1.20371866711766</v>
       </c>
       <c r="O2" t="n">
-        <v>-1.72119686598063</v>
+        <v>-0.856982398428926</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.142884939896371</v>
+        <v>-1.17279726043451</v>
       </c>
       <c r="Q2" t="n">
-        <v>-1.18868085340702</v>
+        <v>-0.83867530470672</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.681689291525435</v>
+        <v>0.466974087947827</v>
       </c>
       <c r="S2" t="n">
-        <v>0.838785386685861</v>
+        <v>0.161378595543123</v>
       </c>
       <c r="T2" t="n">
-        <v>-1.43326531129881</v>
+        <v>-2.0157485097708</v>
       </c>
       <c r="U2" t="n">
-        <v>0.374087206530973</v>
+        <v>-1.74076850933996</v>
       </c>
       <c r="V2" t="n">
-        <v>0.200600842927648</v>
+        <v>-0.502490048300706</v>
       </c>
       <c r="W2" t="n">
-        <v>-1.30260720190209</v>
+        <v>0.20635447549559</v>
       </c>
       <c r="X2" t="n">
-        <v>-0.336648165120748</v>
+        <v>0.335313550193866</v>
       </c>
       <c r="Y2" t="n">
-        <v>-0.723321410920081</v>
+        <v>-0.0772516078530427</v>
       </c>
       <c r="Z2" t="n">
-        <v>-0.719923991843258</v>
+        <v>1.03356691135679</v>
       </c>
       <c r="AA2" t="n">
-        <v>-1.03010074105249</v>
+        <v>0.833490978762941</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.753656425815895</v>
+        <v>-2.00055318187334</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.925523892302386</v>
+        <v>-2.17366378749828</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.795468890807449</v>
+        <v>1.17071165550555</v>
       </c>
       <c r="AE2" t="n">
-        <v>1.01497848586557</v>
+        <v>-0.226232557091613</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.917211015607421</v>
+        <v>1.16403506296453</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.662208023166197</v>
+        <v>-1.60895135093194</v>
       </c>
       <c r="AH2" t="n">
-        <v>-1.03927812345171</v>
+        <v>0.386743740884421</v>
       </c>
       <c r="AI2" t="n">
-        <v>1.15669897491489</v>
+        <v>-0.99156512334336</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1.1278235287767</v>
+        <v>0.918491131217087</v>
       </c>
       <c r="AK2" t="n">
-        <v>-0.847157736862118</v>
+        <v>0.669297647032335</v>
       </c>
       <c r="AL2" t="n">
-        <v>-0.918741627122438</v>
+        <v>-0.840879809274289</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.204828560449665</v>
+        <v>2.89551288890328</v>
       </c>
       <c r="AN2" t="n">
-        <v>-1.09974193597704</v>
+        <v>-0.262143355030369</v>
       </c>
       <c r="AO2" t="n">
-        <v>-0.707762162039327</v>
+        <v>-0.10187288396499</v>
       </c>
       <c r="AP2" t="n">
-        <v>-1.01876096518389</v>
+        <v>0.411118525608635</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.243993714489147</v>
+        <v>-0.335833900057671</v>
       </c>
       <c r="AR2" t="n">
-        <v>-0.244286134683164</v>
+        <v>-0.397882033950131</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.363259475802362</v>
+        <v>0.517331283832395</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.807482178371907</v>
+        <v>-0.174719707604118</v>
       </c>
       <c r="AU2" t="n">
-        <v>-1.15845556465231</v>
+        <v>-2.07510670787604</v>
       </c>
       <c r="AV2" t="n">
-        <v>-0.31616007213577</v>
+        <v>1.29369225514653</v>
       </c>
       <c r="AW2" t="n">
-        <v>1.58133504838656</v>
+        <v>1.59950670048522</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.649237476628184</v>
+        <v>0.431335782894563</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.261365672809192</v>
+        <v>0.367821149080786</v>
       </c>
       <c r="AZ2" t="n">
-        <v>-0.781751257986457</v>
+        <v>-0.327254587140003</v>
       </c>
       <c r="BA2" t="n">
-        <v>-0.769315238973181</v>
+        <v>0.858890351229535</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.2433829383896</v>
+        <v>0.117085316089788</v>
       </c>
       <c r="BC2" t="n">
-        <v>-0.136657719505847</v>
+        <v>-0.821238392590409</v>
       </c>
       <c r="BD2" t="n">
-        <v>2.35523611831361</v>
+        <v>0.352112476435362</v>
       </c>
       <c r="BE2" t="n">
-        <v>0.0171841972969043</v>
+        <v>-1.05716314030307</v>
       </c>
       <c r="BF2" t="n">
-        <v>0.482907428914067</v>
+        <v>0.382422896882184</v>
       </c>
       <c r="BG2" t="n">
-        <v>0.0565981738350629</v>
+        <v>-0.696382460154871</v>
       </c>
       <c r="BH2" t="n">
-        <v>-1.02579687153577</v>
+        <v>0.723397602580521</v>
       </c>
       <c r="BI2" t="n">
-        <v>1.72563873870436</v>
+        <v>0.184071572492683</v>
       </c>
       <c r="BJ2" t="n">
-        <v>-0.958143361324604</v>
+        <v>-0.440396812260654</v>
       </c>
       <c r="BK2" t="n">
-        <v>1.19765255332378</v>
+        <v>0.170568477619746</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.95631747336961</v>
+        <v>1.22289418947802</v>
       </c>
       <c r="BM2" t="n">
-        <v>-0.766677750369209</v>
+        <v>1.21006536858766</v>
       </c>
       <c r="BN2" t="n">
-        <v>0.612762924537608</v>
+        <v>-0.15276354387842</v>
       </c>
       <c r="BO2" t="n">
-        <v>-1.23783114744503</v>
+        <v>-0.316609510035573</v>
       </c>
       <c r="BP2" t="n">
-        <v>-1.65906228021825</v>
+        <v>-0.148467547277344</v>
       </c>
       <c r="BQ2" t="n">
-        <v>2.02518271736788</v>
+        <v>-1.08226389731714</v>
       </c>
       <c r="BR2" t="n">
-        <v>1.36230559375665</v>
+        <v>1.9303471323061</v>
       </c>
       <c r="BS2" t="n">
-        <v>1.51301850733233</v>
+        <v>1.53584171129547</v>
       </c>
       <c r="BT2" t="n">
-        <v>-0.132581441122166</v>
+        <v>0.909827112355093</v>
       </c>
       <c r="BU2" t="n">
-        <v>2.64476457593853</v>
+        <v>0.0610264845816759</v>
       </c>
       <c r="BV2" t="n">
-        <v>0.576429447434198</v>
+        <v>1.7451525864629</v>
       </c>
       <c r="BW2" t="n">
-        <v>-0.274168845475173</v>
+        <v>2.41639575733127</v>
       </c>
       <c r="BX2" t="n">
-        <v>0.156456099001908</v>
+        <v>1.14577528882879</v>
       </c>
       <c r="BY2" t="n">
-        <v>0.568570585790681</v>
+        <v>-0.167508534379409</v>
       </c>
       <c r="BZ2" t="n">
-        <v>-0.390310044100348</v>
+        <v>0.370387230201574</v>
       </c>
       <c r="CA2" t="n">
-        <v>0.263221161158645</v>
+        <v>1.32214268700193</v>
       </c>
       <c r="CB2" t="n">
-        <v>-0.113244705497202</v>
+        <v>-1.10581128895772</v>
       </c>
       <c r="CC2" t="n">
-        <v>1.82488678451881</v>
+        <v>2.57718255720397</v>
       </c>
       <c r="CD2" t="n">
-        <v>0.673779661416283</v>
+        <v>1.3062469013982</v>
       </c>
       <c r="CE2" t="n">
-        <v>0.0323181367550065</v>
+        <v>0.509041970135606</v>
       </c>
       <c r="CF2" t="n">
-        <v>-0.660488889988186</v>
+        <v>-1.90068917647358</v>
       </c>
       <c r="CG2" t="n">
-        <v>-1.04539841169345</v>
+        <v>0.470136895108052</v>
       </c>
       <c r="CH2" t="n">
-        <v>-0.283127392296989</v>
+        <v>0.672446477954747</v>
       </c>
       <c r="CI2" t="n">
-        <v>-1.56989457832515</v>
+        <v>0.726041630182746</v>
       </c>
       <c r="CJ2" t="n">
-        <v>-0.471630213953584</v>
+        <v>-0.207385276702759</v>
       </c>
       <c r="CK2" t="n">
-        <v>-0.0827196527564387</v>
+        <v>0.217991449249352</v>
       </c>
       <c r="CL2" t="n">
-        <v>-1.1590045860386</v>
+        <v>2.12346306558963</v>
       </c>
       <c r="CM2" t="n">
-        <v>1.13056757239299</v>
+        <v>-1.16894034201698</v>
       </c>
       <c r="CN2" t="n">
-        <v>-0.105132041951819</v>
+        <v>-0.941407874604336</v>
       </c>
       <c r="CO2" t="n">
-        <v>0.741126794840414</v>
+        <v>0.881485915510547</v>
       </c>
       <c r="CP2" t="n">
-        <v>-0.867302864889958</v>
+        <v>1.03902921985928</v>
       </c>
       <c r="CQ2" t="n">
-        <v>1.16546265766488</v>
+        <v>-0.287070820734195</v>
       </c>
       <c r="CR2" t="n">
-        <v>-0.182755078593568</v>
+        <v>-1.63905964661609</v>
       </c>
       <c r="CS2" t="n">
-        <v>-0.694814097099549</v>
+        <v>-0.354384658257081</v>
       </c>
       <c r="CT2" t="n">
-        <v>0.36899444346093</v>
+        <v>0.791383805114997</v>
       </c>
       <c r="CU2" t="n">
-        <v>1.10062733771799</v>
+        <v>-1.92241048908251</v>
       </c>
       <c r="CV2" t="n">
-        <v>-0.748034737015694</v>
+        <v>0.625392833276358</v>
       </c>
       <c r="CW2" t="n">
-        <v>-1.07760846355164</v>
+        <v>-0.692913803327905</v>
       </c>
       <c r="CX2" t="n">
-        <v>-0.563132925622734</v>
+        <v>0.00144002309848407</v>
       </c>
       <c r="CY2" t="n">
-        <v>-1.7650905887155</v>
+        <v>0.603622424396335</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.367030531719919</v>
+        <v>0.31232529410505</v>
       </c>
       <c r="DA2" t="n">
-        <v>0.495451172617874</v>
+        <v>0.872259585426939</v>
       </c>
       <c r="DB2" t="n">
-        <v>-1.4829222152822</v>
+        <v>-0.415466149449753</v>
       </c>
       <c r="DC2" t="n">
-        <v>0.731518218970678</v>
+        <v>2.40574607301425</v>
       </c>
       <c r="DD2" t="n">
-        <v>-0.0183647507943979</v>
+        <v>-1.99178333802907</v>
       </c>
       <c r="DE2" t="n">
-        <v>1.11663116575228</v>
+        <v>1.42072187678774</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.278700934848548</v>
+        <v>-0.78953224637155</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.612576815883973</v>
+        <v>-2.05845188138208</v>
       </c>
       <c r="DH2" t="n">
-        <v>-0.24757768253406</v>
+        <v>-0.367788079980028</v>
       </c>
       <c r="DI2" t="n">
-        <v>-1.05984425726912</v>
+        <v>-0.609648463526554</v>
       </c>
       <c r="DJ2" t="n">
-        <v>-0.700296100539043</v>
+        <v>-0.123565618984484</v>
       </c>
       <c r="DK2" t="n">
-        <v>-0.279898108926726</v>
+        <v>-0.841885701156109</v>
       </c>
       <c r="DL2" t="n">
-        <v>-1.4298377878469</v>
+        <v>1.94398049397272</v>
       </c>
       <c r="DM2" t="n">
-        <v>-0.94177653995231</v>
+        <v>-0.332065493585408</v>
       </c>
       <c r="DN2" t="n">
-        <v>1.21014748820092</v>
+        <v>-1.78986293488429</v>
       </c>
       <c r="DO2" t="n">
-        <v>0.472617681438579</v>
+        <v>-1.54924150457353</v>
       </c>
       <c r="DP2" t="n">
-        <v>-0.61018133663396</v>
+        <v>-1.08248761400274</v>
       </c>
       <c r="DQ2" t="n">
-        <v>0.544287508722371</v>
+        <v>-0.286812464994749</v>
       </c>
       <c r="DR2" t="n">
-        <v>-0.856983758655151</v>
+        <v>0.00219040803980006</v>
       </c>
       <c r="DS2" t="n">
-        <v>0.493744922061672</v>
+        <v>-0.00310023699216911</v>
       </c>
       <c r="DT2" t="n">
-        <v>0.343955242805085</v>
+        <v>1.03210256236488</v>
       </c>
       <c r="DU2" t="n">
-        <v>-1.3888684676026</v>
+        <v>1.78560363181932</v>
       </c>
       <c r="DV2" t="n">
-        <v>-0.610175068528104</v>
+        <v>-0.594541584698915</v>
       </c>
       <c r="DW2" t="n">
-        <v>-0.417948930547938</v>
+        <v>-0.392708736362168</v>
       </c>
       <c r="DX2" t="n">
-        <v>-0.432823107657163</v>
+        <v>1.13063684089621</v>
       </c>
       <c r="DY2" t="n">
-        <v>-1.65414905057236</v>
+        <v>-1.40341382739181</v>
       </c>
       <c r="DZ2" t="n">
-        <v>-0.589644187213448</v>
+        <v>-1.73137033098211</v>
       </c>
       <c r="EA2" t="n">
-        <v>-0.40707231612222</v>
+        <v>-1.03572453403106</v>
       </c>
       <c r="EB2" t="n">
-        <v>1.55159793559503</v>
+        <v>-1.27388222666692</v>
       </c>
       <c r="EC2" t="n">
-        <v>1.9071993862343</v>
+        <v>-1.55267211718596</v>
       </c>
       <c r="ED2" t="n">
-        <v>0.334268120572412</v>
+        <v>0.569040432865688</v>
       </c>
       <c r="EE2" t="n">
-        <v>0.335630286838751</v>
+        <v>-0.253987965790802</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.0980306780348122</v>
+        <v>0.273045918796855</v>
       </c>
       <c r="EG2" t="n">
-        <v>0.224307158109159</v>
+        <v>0.463755948880732</v>
       </c>
       <c r="EH2" t="n">
-        <v>0.0339933330862667</v>
+        <v>0.525474920740086</v>
       </c>
       <c r="EI2" t="n">
-        <v>1.00373302182977</v>
+        <v>0.258395723978418</v>
       </c>
       <c r="EJ2" t="n">
-        <v>-2.13807050351106</v>
+        <v>0.169287214233999</v>
       </c>
       <c r="EK2" t="n">
-        <v>-0.735690166244166</v>
+        <v>0.7803241844159</v>
       </c>
       <c r="EL2" t="n">
-        <v>1.25872929910963</v>
+        <v>0.453860236818113</v>
       </c>
       <c r="EM2" t="n">
-        <v>-0.110847404777312</v>
+        <v>-0.191282293938361</v>
       </c>
       <c r="EN2" t="n">
-        <v>0.0893830589035859</v>
+        <v>-0.510634047179288</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.305399936242983</v>
+        <v>2.47261849438954</v>
       </c>
       <c r="EP2" t="n">
-        <v>-1.88298469413058</v>
+        <v>-1.23618793246682</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.0530766168710741</v>
+        <v>-0.565880702144094</v>
       </c>
       <c r="ER2" t="n">
-        <v>-0.705249641452299</v>
+        <v>-0.682990221788085</v>
       </c>
       <c r="ES2" t="n">
-        <v>-0.808958232738156</v>
+        <v>0.306269282550301</v>
       </c>
       <c r="ET2" t="n">
-        <v>1.83949201770102</v>
+        <v>0.447439455603974</v>
       </c>
       <c r="EU2" t="n">
-        <v>-0.0292634222479313</v>
+        <v>-1.25116651520015</v>
       </c>
       <c r="EV2" t="n">
-        <v>0.564292271288141</v>
+        <v>0.320480265095236</v>
       </c>
       <c r="EW2" t="n">
-        <v>-0.731817666891578</v>
+        <v>1.39966789329057</v>
       </c>
       <c r="EX2" t="n">
-        <v>1.7348917549038</v>
+        <v>0.42635127880667</v>
       </c>
       <c r="EY2" t="n">
-        <v>-0.683107659398172</v>
+        <v>0.89931450903108</v>
       </c>
       <c r="EZ2" t="n">
-        <v>-0.274104024273053</v>
+        <v>0.45740612584806</v>
       </c>
       <c r="FA2" t="n">
-        <v>-1.4239540071904</v>
+        <v>0.216186610802267</v>
       </c>
       <c r="FB2" t="n">
-        <v>-0.780262690738126</v>
+        <v>-0.630842013651197</v>
       </c>
       <c r="FC2" t="n">
-        <v>0.32835918127525</v>
+        <v>1.01688041152705</v>
       </c>
       <c r="FD2" t="n">
-        <v>-0.65298291594687</v>
+        <v>-1.45410565646474</v>
       </c>
       <c r="FE2" t="n">
-        <v>-0.213886325865419</v>
+        <v>-0.383824743520895</v>
       </c>
       <c r="FF2" t="n">
-        <v>0.235175005986917</v>
+        <v>-1.26531650520377</v>
       </c>
       <c r="FG2" t="n">
-        <v>-0.371814641135055</v>
+        <v>-0.575731482522123</v>
       </c>
       <c r="FH2" t="n">
-        <v>0.890977527966387</v>
+        <v>0.288191628085093</v>
       </c>
       <c r="FI2" t="n">
-        <v>-0.434555773301234</v>
+        <v>0.0885240604804347</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0.756064113163402</v>
+        <v>1.62765032796151</v>
       </c>
     </row>
   </sheetData>

--- a/file_checks/wrong_genes_example.xlsx
+++ b/file_checks/wrong_genes_example.xlsx
@@ -1343,502 +1343,502 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.608227955759072</v>
+        <v>0.478360805916432</v>
       </c>
       <c r="B2" t="n">
-        <v>0.91866902402775</v>
+        <v>-0.82709835528992</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.478860993680132</v>
+        <v>-0.943360133971307</v>
       </c>
       <c r="D2" t="n">
-        <v>1.18077940581283</v>
+        <v>-0.353149842948095</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0710195461515765</v>
+        <v>-0.98601030641666</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.0231667046275</v>
+        <v>-3.45032648316778</v>
       </c>
       <c r="G2" t="n">
-        <v>1.01079891826555</v>
+        <v>0.374459101706077</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.251630764627514</v>
+        <v>-1.58822163889348</v>
       </c>
       <c r="I2" t="n">
-        <v>0.990448953687442</v>
+        <v>-0.579906637214223</v>
       </c>
       <c r="J2" t="n">
-        <v>-1.27278985672532</v>
+        <v>0.415979502293505</v>
       </c>
       <c r="K2" t="n">
-        <v>1.52315661459891</v>
+        <v>-0.518285511081998</v>
       </c>
       <c r="L2" t="n">
-        <v>-1.48575905948909</v>
+        <v>-0.373715531172149</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.894627390020858</v>
+        <v>-0.140574417327149</v>
       </c>
       <c r="N2" t="n">
-        <v>-1.20371866711766</v>
+        <v>-1.04809694827629</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.856982398428926</v>
+        <v>-0.484830700130059</v>
       </c>
       <c r="P2" t="n">
-        <v>-1.17279726043451</v>
+        <v>1.15791744822646</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.83867530470672</v>
+        <v>0.849114325635331</v>
       </c>
       <c r="R2" t="n">
-        <v>0.466974087947827</v>
+        <v>0.945975674375585</v>
       </c>
       <c r="S2" t="n">
-        <v>0.161378595543123</v>
+        <v>0.687667792385745</v>
       </c>
       <c r="T2" t="n">
-        <v>-2.0157485097708</v>
+        <v>-0.493452347474992</v>
       </c>
       <c r="U2" t="n">
-        <v>-1.74076850933996</v>
+        <v>-0.476818678744709</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.502490048300706</v>
+        <v>0.50993957051756</v>
       </c>
       <c r="W2" t="n">
-        <v>0.20635447549559</v>
+        <v>-0.38712845056508</v>
       </c>
       <c r="X2" t="n">
-        <v>0.335313550193866</v>
+        <v>0.68111180808781</v>
       </c>
       <c r="Y2" t="n">
-        <v>-0.0772516078530427</v>
+        <v>1.12019616632894</v>
       </c>
       <c r="Z2" t="n">
-        <v>1.03356691135679</v>
+        <v>-0.0896880396459589</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.833490978762941</v>
+        <v>-1.74963605892462</v>
       </c>
       <c r="AB2" t="n">
-        <v>-2.00055318187334</v>
+        <v>-0.843705729891984</v>
       </c>
       <c r="AC2" t="n">
-        <v>-2.17366378749828</v>
+        <v>0.603673882019877</v>
       </c>
       <c r="AD2" t="n">
-        <v>1.17071165550555</v>
+        <v>0.415501282608733</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0.226232557091613</v>
+        <v>1.47212977457282</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.16403506296453</v>
+        <v>1.50202890487026</v>
       </c>
       <c r="AG2" t="n">
-        <v>-1.60895135093194</v>
+        <v>0.112887251473777</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.386743740884421</v>
+        <v>-1.59140184097407</v>
       </c>
       <c r="AI2" t="n">
-        <v>-0.99156512334336</v>
+        <v>-0.889512546367628</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.918491131217087</v>
+        <v>0.230596472242372</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.669297647032335</v>
+        <v>-0.587401977820269</v>
       </c>
       <c r="AL2" t="n">
-        <v>-0.840879809274289</v>
+        <v>-0.443197933253127</v>
       </c>
       <c r="AM2" t="n">
-        <v>2.89551288890328</v>
+        <v>-0.67984518301687</v>
       </c>
       <c r="AN2" t="n">
-        <v>-0.262143355030369</v>
+        <v>-0.104803625234717</v>
       </c>
       <c r="AO2" t="n">
-        <v>-0.10187288396499</v>
+        <v>-1.16073156749597</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.411118525608635</v>
+        <v>0.501743633147548</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-0.335833900057671</v>
+        <v>1.19937771422572</v>
       </c>
       <c r="AR2" t="n">
-        <v>-0.397882033950131</v>
+        <v>-0.410006922649217</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.517331283832395</v>
+        <v>-1.43977894458033</v>
       </c>
       <c r="AT2" t="n">
-        <v>-0.174719707604118</v>
+        <v>-1.13612826330151</v>
       </c>
       <c r="AU2" t="n">
-        <v>-2.07510670787604</v>
+        <v>-0.271250257153991</v>
       </c>
       <c r="AV2" t="n">
-        <v>1.29369225514653</v>
+        <v>0.138593749155672</v>
       </c>
       <c r="AW2" t="n">
-        <v>1.59950670048522</v>
+        <v>-1.17125550512285</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.431335782894563</v>
+        <v>-0.754156060198346</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.367821149080786</v>
+        <v>1.21609133554876</v>
       </c>
       <c r="AZ2" t="n">
-        <v>-0.327254587140003</v>
+        <v>0.194865984131669</v>
       </c>
       <c r="BA2" t="n">
-        <v>0.858890351229535</v>
+        <v>-0.932099873170266</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.117085316089788</v>
+        <v>-0.104468074013554</v>
       </c>
       <c r="BC2" t="n">
-        <v>-0.821238392590409</v>
+        <v>0.141619897335418</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.352112476435362</v>
+        <v>-0.35852595754109</v>
       </c>
       <c r="BE2" t="n">
-        <v>-1.05716314030307</v>
+        <v>0.541393756404146</v>
       </c>
       <c r="BF2" t="n">
-        <v>0.382422896882184</v>
+        <v>-0.95530229332947</v>
       </c>
       <c r="BG2" t="n">
-        <v>-0.696382460154871</v>
+        <v>0.161281487538274</v>
       </c>
       <c r="BH2" t="n">
-        <v>0.723397602580521</v>
+        <v>-1.21158403573694</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.184071572492683</v>
+        <v>-1.50729458727556</v>
       </c>
       <c r="BJ2" t="n">
-        <v>-0.440396812260654</v>
+        <v>-1.35491820172185</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.170568477619746</v>
+        <v>-1.5152733089171</v>
       </c>
       <c r="BL2" t="n">
-        <v>1.22289418947802</v>
+        <v>1.64995787643101</v>
       </c>
       <c r="BM2" t="n">
-        <v>1.21006536858766</v>
+        <v>0.213320436957391</v>
       </c>
       <c r="BN2" t="n">
-        <v>-0.15276354387842</v>
+        <v>-0.33411758902833</v>
       </c>
       <c r="BO2" t="n">
-        <v>-0.316609510035573</v>
+        <v>-0.624250759243987</v>
       </c>
       <c r="BP2" t="n">
-        <v>-0.148467547277344</v>
+        <v>0.278736648246234</v>
       </c>
       <c r="BQ2" t="n">
-        <v>-1.08226389731714</v>
+        <v>-0.811174079993219</v>
       </c>
       <c r="BR2" t="n">
-        <v>1.9303471323061</v>
+        <v>0.696832820171213</v>
       </c>
       <c r="BS2" t="n">
-        <v>1.53584171129547</v>
+        <v>1.0080648979952</v>
       </c>
       <c r="BT2" t="n">
-        <v>0.909827112355093</v>
+        <v>-0.892579478342867</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.0610264845816759</v>
+        <v>-0.807700314033508</v>
       </c>
       <c r="BV2" t="n">
-        <v>1.7451525864629</v>
+        <v>-0.0262392370154476</v>
       </c>
       <c r="BW2" t="n">
-        <v>2.41639575733127</v>
+        <v>-0.0084300105750957</v>
       </c>
       <c r="BX2" t="n">
-        <v>1.14577528882879</v>
+        <v>0.35017616814363</v>
       </c>
       <c r="BY2" t="n">
-        <v>-0.167508534379409</v>
+        <v>-0.42209761069787</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0.370387230201574</v>
+        <v>0.448425332432154</v>
       </c>
       <c r="CA2" t="n">
-        <v>1.32214268700193</v>
+        <v>-0.0864432905199077</v>
       </c>
       <c r="CB2" t="n">
-        <v>-1.10581128895772</v>
+        <v>-1.26966986037153</v>
       </c>
       <c r="CC2" t="n">
-        <v>2.57718255720397</v>
+        <v>1.09240678513642</v>
       </c>
       <c r="CD2" t="n">
-        <v>1.3062469013982</v>
+        <v>-0.67636334534001</v>
       </c>
       <c r="CE2" t="n">
-        <v>0.509041970135606</v>
+        <v>-0.305470054003797</v>
       </c>
       <c r="CF2" t="n">
-        <v>-1.90068917647358</v>
+        <v>-1.50612849240303</v>
       </c>
       <c r="CG2" t="n">
-        <v>0.470136895108052</v>
+        <v>-1.50148024889171</v>
       </c>
       <c r="CH2" t="n">
-        <v>0.672446477954747</v>
+        <v>1.24614412780823</v>
       </c>
       <c r="CI2" t="n">
-        <v>0.726041630182746</v>
+        <v>1.14889557833666</v>
       </c>
       <c r="CJ2" t="n">
-        <v>-0.207385276702759</v>
+        <v>0.90429141498968</v>
       </c>
       <c r="CK2" t="n">
-        <v>0.217991449249352</v>
+        <v>0.0332749835241754</v>
       </c>
       <c r="CL2" t="n">
-        <v>2.12346306558963</v>
+        <v>-0.862239036181374</v>
       </c>
       <c r="CM2" t="n">
-        <v>-1.16894034201698</v>
+        <v>0.799650200585559</v>
       </c>
       <c r="CN2" t="n">
-        <v>-0.941407874604336</v>
+        <v>0.744405123104396</v>
       </c>
       <c r="CO2" t="n">
-        <v>0.881485915510547</v>
+        <v>-0.300169971702703</v>
       </c>
       <c r="CP2" t="n">
-        <v>1.03902921985928</v>
+        <v>2.0712684937411</v>
       </c>
       <c r="CQ2" t="n">
-        <v>-0.287070820734195</v>
+        <v>-2.90866190295384</v>
       </c>
       <c r="CR2" t="n">
-        <v>-1.63905964661609</v>
+        <v>-0.145121950694239</v>
       </c>
       <c r="CS2" t="n">
-        <v>-0.354384658257081</v>
+        <v>0.615316007033419</v>
       </c>
       <c r="CT2" t="n">
-        <v>0.791383805114997</v>
+        <v>-1.30746620924202</v>
       </c>
       <c r="CU2" t="n">
-        <v>-1.92241048908251</v>
+        <v>-0.168910875559696</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.625392833276358</v>
+        <v>-0.506785166345473</v>
       </c>
       <c r="CW2" t="n">
-        <v>-0.692913803327905</v>
+        <v>-0.528753126582631</v>
       </c>
       <c r="CX2" t="n">
-        <v>0.00144002309848407</v>
+        <v>0.116282746909195</v>
       </c>
       <c r="CY2" t="n">
-        <v>0.603622424396335</v>
+        <v>1.00879433110413</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.31232529410505</v>
+        <v>-0.0210555363140724</v>
       </c>
       <c r="DA2" t="n">
-        <v>0.872259585426939</v>
+        <v>0.335342734268826</v>
       </c>
       <c r="DB2" t="n">
-        <v>-0.415466149449753</v>
+        <v>-0.99901195731991</v>
       </c>
       <c r="DC2" t="n">
-        <v>2.40574607301425</v>
+        <v>0.364600911817187</v>
       </c>
       <c r="DD2" t="n">
-        <v>-1.99178333802907</v>
+        <v>-0.105781701231887</v>
       </c>
       <c r="DE2" t="n">
-        <v>1.42072187678774</v>
+        <v>-0.775790196345733</v>
       </c>
       <c r="DF2" t="n">
-        <v>-0.78953224637155</v>
+        <v>-0.0636642408002761</v>
       </c>
       <c r="DG2" t="n">
-        <v>-2.05845188138208</v>
+        <v>-0.285885294253457</v>
       </c>
       <c r="DH2" t="n">
-        <v>-0.367788079980028</v>
+        <v>2.68638214061613</v>
       </c>
       <c r="DI2" t="n">
-        <v>-0.609648463526554</v>
+        <v>0.447657284213077</v>
       </c>
       <c r="DJ2" t="n">
-        <v>-0.123565618984484</v>
+        <v>0.180389124451731</v>
       </c>
       <c r="DK2" t="n">
-        <v>-0.841885701156109</v>
+        <v>0.590059773680054</v>
       </c>
       <c r="DL2" t="n">
-        <v>1.94398049397272</v>
+        <v>-0.515578267903179</v>
       </c>
       <c r="DM2" t="n">
-        <v>-0.332065493585408</v>
+        <v>1.91641098900032</v>
       </c>
       <c r="DN2" t="n">
-        <v>-1.78986293488429</v>
+        <v>-0.17026542116099</v>
       </c>
       <c r="DO2" t="n">
-        <v>-1.54924150457353</v>
+        <v>-0.44217628081873</v>
       </c>
       <c r="DP2" t="n">
-        <v>-1.08248761400274</v>
+        <v>-0.949189523576477</v>
       </c>
       <c r="DQ2" t="n">
-        <v>-0.286812464994749</v>
+        <v>-0.538583734730428</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.00219040803980006</v>
+        <v>-0.192039285996565</v>
       </c>
       <c r="DS2" t="n">
-        <v>-0.00310023699216911</v>
+        <v>1.30494859545434</v>
       </c>
       <c r="DT2" t="n">
-        <v>1.03210256236488</v>
+        <v>1.39565773721613</v>
       </c>
       <c r="DU2" t="n">
-        <v>1.78560363181932</v>
+        <v>-0.103733318271535</v>
       </c>
       <c r="DV2" t="n">
-        <v>-0.594541584698915</v>
+        <v>0.138825639873317</v>
       </c>
       <c r="DW2" t="n">
-        <v>-0.392708736362168</v>
+        <v>-1.80572296829964</v>
       </c>
       <c r="DX2" t="n">
-        <v>1.13063684089621</v>
+        <v>-0.229440811868327</v>
       </c>
       <c r="DY2" t="n">
-        <v>-1.40341382739181</v>
+        <v>-0.645711081035208</v>
       </c>
       <c r="DZ2" t="n">
-        <v>-1.73137033098211</v>
+        <v>0.100905190634329</v>
       </c>
       <c r="EA2" t="n">
-        <v>-1.03572453403106</v>
+        <v>-0.658642878880446</v>
       </c>
       <c r="EB2" t="n">
-        <v>-1.27388222666692</v>
+        <v>-0.194613307893977</v>
       </c>
       <c r="EC2" t="n">
-        <v>-1.55267211718596</v>
+        <v>-2.77311806128523</v>
       </c>
       <c r="ED2" t="n">
-        <v>0.569040432865688</v>
+        <v>-0.319214681377077</v>
       </c>
       <c r="EE2" t="n">
-        <v>-0.253987965790802</v>
+        <v>1.31206628562483</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.273045918796855</v>
+        <v>0.220806341024438</v>
       </c>
       <c r="EG2" t="n">
-        <v>0.463755948880732</v>
+        <v>-0.0982825982075999</v>
       </c>
       <c r="EH2" t="n">
-        <v>0.525474920740086</v>
+        <v>0.836809552866527</v>
       </c>
       <c r="EI2" t="n">
-        <v>0.258395723978418</v>
+        <v>0.106574733608135</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.169287214233999</v>
+        <v>-0.0106498609212441</v>
       </c>
       <c r="EK2" t="n">
-        <v>0.7803241844159</v>
+        <v>0.62717006827108</v>
       </c>
       <c r="EL2" t="n">
-        <v>0.453860236818113</v>
+        <v>0.786273616693904</v>
       </c>
       <c r="EM2" t="n">
-        <v>-0.191282293938361</v>
+        <v>-0.353134845131652</v>
       </c>
       <c r="EN2" t="n">
-        <v>-0.510634047179288</v>
+        <v>0.56900208327622</v>
       </c>
       <c r="EO2" t="n">
-        <v>2.47261849438954</v>
+        <v>-1.11900532677786</v>
       </c>
       <c r="EP2" t="n">
-        <v>-1.23618793246682</v>
+        <v>-0.387736377257271</v>
       </c>
       <c r="EQ2" t="n">
-        <v>-0.565880702144094</v>
+        <v>-0.274960706989924</v>
       </c>
       <c r="ER2" t="n">
-        <v>-0.682990221788085</v>
+        <v>-0.660676545311038</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.306269282550301</v>
+        <v>-0.126042110803502</v>
       </c>
       <c r="ET2" t="n">
-        <v>0.447439455603974</v>
+        <v>0.000409063682496225</v>
       </c>
       <c r="EU2" t="n">
-        <v>-1.25116651520015</v>
+        <v>-1.26616743191484</v>
       </c>
       <c r="EV2" t="n">
-        <v>0.320480265095236</v>
+        <v>1.22092526408128</v>
       </c>
       <c r="EW2" t="n">
-        <v>1.39966789329057</v>
+        <v>-0.351109391961933</v>
       </c>
       <c r="EX2" t="n">
-        <v>0.42635127880667</v>
+        <v>0.210498013084</v>
       </c>
       <c r="EY2" t="n">
-        <v>0.89931450903108</v>
+        <v>0.501614404033431</v>
       </c>
       <c r="EZ2" t="n">
-        <v>0.45740612584806</v>
+        <v>-0.65601791049055</v>
       </c>
       <c r="FA2" t="n">
-        <v>0.216186610802267</v>
+        <v>0.558271914330479</v>
       </c>
       <c r="FB2" t="n">
-        <v>-0.630842013651197</v>
+        <v>-1.43387462854579</v>
       </c>
       <c r="FC2" t="n">
-        <v>1.01688041152705</v>
+        <v>-0.477949371260705</v>
       </c>
       <c r="FD2" t="n">
-        <v>-1.45410565646474</v>
+        <v>1.29129933006259</v>
       </c>
       <c r="FE2" t="n">
-        <v>-0.383824743520895</v>
+        <v>2.37801201548088</v>
       </c>
       <c r="FF2" t="n">
-        <v>-1.26531650520377</v>
+        <v>-0.0923408313019709</v>
       </c>
       <c r="FG2" t="n">
-        <v>-0.575731482522123</v>
+        <v>-0.808853956318011</v>
       </c>
       <c r="FH2" t="n">
-        <v>0.288191628085093</v>
+        <v>-0.930467218870931</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.0885240604804347</v>
+        <v>-2.22253503281001</v>
       </c>
       <c r="FJ2" t="n">
-        <v>1.62765032796151</v>
+        <v>-0.209257167632759</v>
       </c>
     </row>
   </sheetData>
